--- a/WahoClient/ImportData/Products.xlsx
+++ b/WahoClient/ImportData/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Đơn giá</t>
   </si>
   <si>
-    <t>Giá tại cửa hàng</t>
-  </si>
-  <si>
     <t>Có HSD ?</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Local Brand</t>
   </si>
   <si>
-    <t>A02</t>
-  </si>
-  <si>
     <t>Chiếc</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Swe</t>
-  </si>
-  <si>
-    <t>A01</t>
   </si>
   <si>
     <t>chiếc</t>
@@ -105,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,18 +110,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,16 +133,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,14 +174,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,68 +188,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,55 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,127 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +466,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +508,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -546,17 +548,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -565,16 +556,18 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,137 +577,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1034,29 +1030,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
-    <col min="12" max="13" width="18.1111111111111" customWidth="1"/>
-    <col min="15" max="15" width="10.3333333333333" customWidth="1"/>
-    <col min="16" max="16" width="12.5555555555556" customWidth="1"/>
+    <col min="5" max="6" width="10.2222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,40 +1066,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>300000</v>
@@ -1123,54 +1105,51 @@
         <v>300000</v>
       </c>
       <c r="D2" s="1">
-        <v>600000</v>
-      </c>
-      <c r="E2" s="1">
         <v>0</v>
       </c>
+      <c r="E2" s="2">
+        <v>44958</v>
+      </c>
       <c r="F2" s="2">
-        <v>44958</v>
-      </c>
-      <c r="G2" s="2">
         <v>45046</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>400</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1">
-        <v>400</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="3">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3">
+        <v>300</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>300</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2">
-        <v>23</v>
-      </c>
-      <c r="P2">
+      <c r="N2" s="3">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="3">
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="Q2" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>300000</v>
@@ -1179,54 +1158,51 @@
         <v>300000</v>
       </c>
       <c r="D3" s="1">
-        <v>600000</v>
-      </c>
-      <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="E3" s="2">
+        <v>44957</v>
+      </c>
       <c r="F3" s="2">
-        <v>44957</v>
-      </c>
-      <c r="G3" s="2">
         <v>44968</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1">
-        <v>400</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>300</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" s="3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>300</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3">
-        <v>23</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>100000</v>
@@ -1235,54 +1211,51 @@
         <v>200000</v>
       </c>
       <c r="D4" s="1">
-        <v>150000</v>
-      </c>
-      <c r="E4" s="1">
         <v>1</v>
       </c>
+      <c r="E4" s="2">
+        <v>44958</v>
+      </c>
       <c r="F4" s="2">
-        <v>44958</v>
-      </c>
-      <c r="G4" s="2">
         <v>45046</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>200</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1">
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
         <v>200</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>200</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>200</v>
-      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>1000</v>
@@ -1291,53 +1264,50 @@
         <v>200000</v>
       </c>
       <c r="D5" s="1">
-        <v>150000</v>
-      </c>
-      <c r="E5" s="1">
         <v>1</v>
       </c>
+      <c r="E5" s="2">
+        <v>44957</v>
+      </c>
       <c r="F5" s="2">
-        <v>44957</v>
-      </c>
-      <c r="G5" s="2">
         <v>44968</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>200</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1">
-        <v>200</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="3">
         <v>2</v>
       </c>
-      <c r="P5">
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="P5" s="3">
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="Q5" s="3">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>